--- a/orcamentosParaClientes/OrcamentoGerado_Prefeitura de Itapema.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_Prefeitura de Itapema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1FB7F-5C61-45CA-8D85-662FADE3735F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50D5F8-EC88-46FB-9485-6345FBAADCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7030EEFA-7D8F-4D42-A088-EBFCEA010AC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D5803BC-2B32-42D3-9868-83835CE7E1FB}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Orçamento</t>
   </si>
@@ -79,6 +79,69 @@
   </si>
   <si>
     <t>Pelo presente, apresentamos a proposta para Locação conforme descrição abaixo.</t>
+  </si>
+  <si>
+    <t>Cenário: Centro</t>
+  </si>
+  <si>
+    <t>Sequencia</t>
+  </si>
+  <si>
+    <t>Código do Produto</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Altura</t>
+  </si>
+  <si>
+    <t>Largura</t>
+  </si>
+  <si>
+    <t>Comprimento</t>
+  </si>
+  <si>
+    <t>Qtd.</t>
+  </si>
+  <si>
+    <t>Valor Unitário</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>GR01</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>eeeee</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>Cenário: Oeste</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>yyyyy</t>
+  </si>
+  <si>
+    <t>Cenário: asdasd</t>
+  </si>
+  <si>
+    <t>wwww</t>
   </si>
   <si>
     <t>Total</t>
@@ -125,7 +188,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +221,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,12 +273,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,16 +327,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,8 +680,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56FA9DD-2EF9-4948-BF3E-0E7D20D9D5E1}">
-  <dimension ref="A3:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5EA5FB-B985-4EB1-90F4-6C4DE78551D0}">
+  <dimension ref="A3:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,8 +690,12 @@
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -632,103 +771,440 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17">
+        <v>90</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10">
+        <v>555</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10">
+        <v>777</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10">
+        <v>76777</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="18">
+        <f>SUM(I15:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>6</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>7</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="18">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>8</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>9</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="18">
+        <f>SUM(I30:I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
-        <v>25</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="18">
+        <f>I33+I27+I21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C47" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C48" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4D960C-A208-4399-8DB6-366A4BDBDC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1A4B0-CAE9-4917-B69F-BD448CE4532C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
